--- a/relatedFiles/other files/final%20himalaya%20sheet.xlsx
+++ b/relatedFiles/other files/final%20himalaya%20sheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\ServiceProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_b8d\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Dev\Laravel\_Developing_Phase_Project\Murarkey Single Vendor\Murarkey_single_vendor_ecommerce_with_vuexy_template\relatedFiles\other files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89402DDA-124B-1B4B-932C-00037D961F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB79E65-31F6-4E69-8820-5CB3DE794D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1089,10 +1089,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1451,943 +1454,956 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="232" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="269.25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>30693</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="336.75" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>30694</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="403.5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>30695</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>30696</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="309.75" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>30697</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="363" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>30698</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="363" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>30699</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="349.5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>30700</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" ht="390" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>30701</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>30702</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" ht="360" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>30703</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="148.5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>30704</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="228.75" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>30705</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="228.75" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>30706</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="349.5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>30707</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>30708</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>30709</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="255.75" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>30710</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>30711</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="255.75" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>30712</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="255.75" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>30713</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="309.75" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>30714</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="390" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>30715</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="390" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>30716</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="175.5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>30717</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>30718</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="215.25" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>30719</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:8" ht="405" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>30720</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>30721</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="282.75" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>30722</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="282.75" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>30723</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>30724</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="282.75" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>30725</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="282.75" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>30726</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="282.75" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>30727</v>
       </c>
     </row>

--- a/relatedFiles/other files/final%20himalaya%20sheet.xlsx
+++ b/relatedFiles/other files/final%20himalaya%20sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Dev\Laravel\_Developing_Phase_Project\Murarkey Single Vendor\Murarkey_single_vendor_ecommerce_with_vuexy_template\relatedFiles\other files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB79E65-31F6-4E69-8820-5CB3DE794D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E234E04D-33F1-4F10-9264-CD22D55FF119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1454,24 +1454,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="232" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1523,7 +1515,7 @@
         <v>30693</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1549,7 +1541,7 @@
         <v>30694</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1575,7 +1567,7 @@
         <v>30695</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1601,7 +1593,7 @@
         <v>30696</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1627,7 +1619,7 @@
         <v>30697</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1653,7 +1645,7 @@
         <v>30698</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1679,7 +1671,7 @@
         <v>30699</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1705,7 +1697,7 @@
         <v>30700</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="390" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -1731,7 +1723,7 @@
         <v>30701</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -1757,7 +1749,7 @@
         <v>30702</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="360" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -1783,7 +1775,7 @@
         <v>30703</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -1809,7 +1801,7 @@
         <v>30704</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
@@ -1835,7 +1827,7 @@
         <v>30705</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
@@ -1861,7 +1853,7 @@
         <v>30706</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -1887,7 +1879,7 @@
         <v>30707</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>79</v>
       </c>
@@ -1913,7 +1905,7 @@
         <v>30708</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
@@ -1939,7 +1931,7 @@
         <v>30709</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
@@ -1965,7 +1957,7 @@
         <v>30710</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>92</v>
       </c>
@@ -1991,7 +1983,7 @@
         <v>30711</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>96</v>
       </c>
@@ -2017,7 +2009,7 @@
         <v>30712</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -2043,7 +2035,7 @@
         <v>30713</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -2069,7 +2061,7 @@
         <v>30714</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
@@ -2095,7 +2087,7 @@
         <v>30715</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>114</v>
       </c>
@@ -2121,7 +2113,7 @@
         <v>30716</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>118</v>
       </c>
@@ -2147,7 +2139,7 @@
         <v>30717</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -2173,7 +2165,7 @@
         <v>30718</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>124</v>
       </c>
@@ -2199,7 +2191,7 @@
         <v>30719</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="405" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>130</v>
       </c>
@@ -2225,7 +2217,7 @@
         <v>30720</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>133</v>
       </c>
@@ -2251,7 +2243,7 @@
         <v>30721</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>136</v>
       </c>
@@ -2277,7 +2269,7 @@
         <v>30722</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>140</v>
       </c>
@@ -2303,7 +2295,7 @@
         <v>30723</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>142</v>
       </c>
@@ -2329,7 +2321,7 @@
         <v>30724</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
@@ -2355,7 +2347,7 @@
         <v>30725</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>149</v>
       </c>
@@ -2381,7 +2373,7 @@
         <v>30726</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>151</v>
       </c>
@@ -2409,5 +2401,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>